--- a/Datos_proyecto.xlsx
+++ b/Datos_proyecto.xlsx
@@ -961,8 +961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J1981"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A1979" workbookViewId="0">
+      <selection activeCell="F1980" sqref="F1980"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Datos_proyecto.xlsx
+++ b/Datos_proyecto.xlsx
@@ -90,7 +90,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="[$-409]d/mmm/yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d/mmm/yy;@"/>
   </numFmts>
   <fonts count="21" x14ac:knownFonts="1">
     <font>
@@ -600,8 +600,8 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -651,10 +651,10 @@
   </cellStyles>
   <dxfs count="3">
     <dxf>
-      <numFmt numFmtId="168" formatCode="[$-409]d/mmm/yy;@"/>
+      <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="164" formatCode="[$-409]d/mmm/yy;@"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -686,8 +686,8 @@
     <tableColumn id="4" name="Actualizacion del panel de servicio"/>
     <tableColumn id="5" name="numero de inversores"/>
     <tableColumn id="6" name="Numero Paneles"/>
-    <tableColumn id="7" name="Fecha de envio de permiso" dataDxfId="0"/>
-    <tableColumn id="9" name="Fecha de aprobacion de permiso" dataDxfId="1"/>
+    <tableColumn id="7" name="Fecha de envio de permiso" dataDxfId="1"/>
+    <tableColumn id="9" name="Fecha de aprobacion de permiso" dataDxfId="0"/>
     <tableColumn id="12" name="Numero de empleados por dia"/>
     <tableColumn id="13" name="Horas de instalacion estandar"/>
     <tableColumn id="14" name="Horas extra"/>
@@ -961,8 +961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J1981"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1979" workbookViewId="0">
-      <selection activeCell="F1980" sqref="F1980"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O12" sqref="L5:O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
